--- a/Resultados/RESULTADOS_1.xlsx
+++ b/Resultados/RESULTADOS_1.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -573,67 +573,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="E2" t="n">
-        <v>37.87</v>
+        <v>41.3</v>
       </c>
       <c r="F2" t="n">
-        <v>34.65</v>
+        <v>37.36</v>
       </c>
       <c r="G2" t="n">
-        <v>15.75</v>
+        <v>11.92</v>
       </c>
       <c r="H2" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="J2" t="n">
-        <v>51.33</v>
+        <v>71.52</v>
       </c>
       <c r="K2" t="n">
-        <v>24.83</v>
+        <v>32.27</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="N2" t="n">
-        <v>5.51</v>
+        <v>8.25</v>
       </c>
       <c r="O2" t="n">
-        <v>6564.78</v>
+        <v>9054.6</v>
       </c>
       <c r="P2" t="n">
-        <v>180.52</v>
+        <v>257.39</v>
       </c>
       <c r="Q2" t="n">
         <v>1194.85</v>
       </c>
       <c r="R2" t="n">
-        <v>310.77</v>
+        <v>402.73</v>
       </c>
       <c r="S2" t="n">
         <v>100.53</v>
       </c>
       <c r="T2" t="n">
-        <v>104437.45</v>
+        <v>150134.02</v>
       </c>
       <c r="U2" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W2" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="X2" t="n">
-        <v>6.15</v>
+        <v>8.85</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -647,75 +647,75 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M3" t="n">
         <v>20</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33.86</v>
-      </c>
-      <c r="F3" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>52.47</v>
-      </c>
-      <c r="K3" t="n">
-        <v>24.83</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
       <c r="N3" t="n">
-        <v>5.64</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>6705.1</v>
+        <v>9362.469999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>146.13</v>
+        <v>176.48</v>
       </c>
       <c r="Q3" t="n">
         <v>1194.85</v>
       </c>
       <c r="R3" t="n">
-        <v>196.28</v>
+        <v>168.53</v>
       </c>
       <c r="S3" t="n">
         <v>100.53</v>
       </c>
       <c r="T3" t="n">
-        <v>47541.24</v>
+        <v>33763.6</v>
       </c>
       <c r="U3" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="W3" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="X3" t="n">
-        <v>9.01</v>
+        <v>10.84</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -737,67 +737,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="E4" t="n">
-        <v>33.84</v>
+        <v>32.81</v>
       </c>
       <c r="F4" t="n">
-        <v>31.34</v>
+        <v>30.32</v>
       </c>
       <c r="G4" t="n">
-        <v>30.83</v>
+        <v>44.38</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97</v>
+        <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J4" t="n">
-        <v>53.61</v>
+        <v>76.52</v>
       </c>
       <c r="K4" t="n">
-        <v>24.83</v>
+        <v>32.27</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5.22</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>6845.59</v>
+        <v>9671.83</v>
       </c>
       <c r="P4" t="n">
-        <v>148.44</v>
+        <v>178.53</v>
       </c>
       <c r="Q4" t="n">
         <v>1194.85</v>
       </c>
       <c r="R4" t="n">
-        <v>195.81</v>
+        <v>161.95</v>
       </c>
       <c r="S4" t="n">
         <v>100.53</v>
       </c>
       <c r="T4" t="n">
-        <v>47308.9</v>
+        <v>30482.95</v>
       </c>
       <c r="U4" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="V4" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="W4" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="X4" t="n">
-        <v>11.85</v>
+        <v>12.67</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -819,67 +819,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="E5" t="n">
-        <v>33.84</v>
+        <v>32.81</v>
       </c>
       <c r="F5" t="n">
-        <v>31.34</v>
+        <v>30.32</v>
       </c>
       <c r="G5" t="n">
-        <v>30.83</v>
+        <v>44.38</v>
       </c>
       <c r="H5" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="I5" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>54.75</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>24.83</v>
+        <v>32.27</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>7.33</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.92</v>
+        <v>9.44</v>
       </c>
       <c r="O5" t="n">
-        <v>6986.39</v>
+        <v>9982.709999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>151.32</v>
+        <v>183.91</v>
       </c>
       <c r="Q5" t="n">
         <v>1194.85</v>
       </c>
       <c r="R5" t="n">
-        <v>195.81</v>
+        <v>161.95</v>
       </c>
       <c r="S5" t="n">
         <v>100.53</v>
       </c>
       <c r="T5" t="n">
-        <v>47308.9</v>
+        <v>30482.95</v>
       </c>
       <c r="U5" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="V5" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="W5" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="X5" t="n">
-        <v>14.69</v>
+        <v>14.49</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>

--- a/Resultados/RESULTADOS_1.xlsx
+++ b/Resultados/RESULTADOS_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="E2" t="n">
-        <v>37.87</v>
+        <v>38.02</v>
       </c>
       <c r="F2" t="n">
         <v>34.65</v>
@@ -658,7 +658,7 @@
         <v>2.95</v>
       </c>
       <c r="E3" t="n">
-        <v>33.86</v>
+        <v>33.87</v>
       </c>
       <c r="F3" t="n">
         <v>31.36</v>
@@ -803,88 +803,6 @@
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="G5" t="n">
-        <v>30.83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I5" t="n">
-        <v>61</v>
-      </c>
-      <c r="J5" t="n">
-        <v>54.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24.83</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6986.39</v>
-      </c>
-      <c r="P5" t="n">
-        <v>151.32</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>195.81</v>
-      </c>
-      <c r="S5" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>47308.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Resultados/RESULTADOS_1.xlsx
+++ b/Resultados/RESULTADOS_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -573,67 +573,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="E2" t="n">
-        <v>35.86</v>
+        <v>38.02</v>
       </c>
       <c r="F2" t="n">
-        <v>33.07</v>
+        <v>34.65</v>
       </c>
       <c r="G2" t="n">
-        <v>20.25</v>
+        <v>15.75</v>
       </c>
       <c r="H2" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J2" t="n">
-        <v>39.78</v>
+        <v>51.33</v>
       </c>
       <c r="K2" t="n">
-        <v>19.54</v>
+        <v>24.83</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="N2" t="n">
-        <v>4.24</v>
+        <v>5.51</v>
       </c>
       <c r="O2" t="n">
-        <v>5140</v>
+        <v>6564.78</v>
       </c>
       <c r="P2" t="n">
-        <v>133.32</v>
+        <v>180.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1194.86</v>
+        <v>1194.85</v>
       </c>
       <c r="R2" t="n">
-        <v>256.6</v>
+        <v>310.77</v>
       </c>
       <c r="S2" t="n">
         <v>100.53</v>
       </c>
       <c r="T2" t="n">
-        <v>77519.83</v>
+        <v>104437.45</v>
       </c>
       <c r="U2" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="V2" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="X2" t="n">
-        <v>4.57</v>
+        <v>6.15</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -655,67 +655,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="E3" t="n">
-        <v>34.93</v>
+        <v>33.87</v>
       </c>
       <c r="F3" t="n">
-        <v>32.31</v>
+        <v>31.36</v>
       </c>
       <c r="G3" t="n">
-        <v>23.36</v>
+        <v>30.35</v>
       </c>
       <c r="H3" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="I3" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>40.06</v>
+        <v>52.47</v>
       </c>
       <c r="K3" t="n">
-        <v>19.54</v>
+        <v>24.83</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>4.26</v>
+        <v>5.64</v>
       </c>
       <c r="O3" t="n">
-        <v>5174.29</v>
+        <v>6705.1</v>
       </c>
       <c r="P3" t="n">
-        <v>126.41</v>
+        <v>146.13</v>
       </c>
       <c r="Q3" t="n">
         <v>1194.85</v>
       </c>
       <c r="R3" t="n">
-        <v>227.51</v>
+        <v>196.28</v>
       </c>
       <c r="S3" t="n">
         <v>100.53</v>
       </c>
       <c r="T3" t="n">
-        <v>63050.09</v>
+        <v>47541.24</v>
       </c>
       <c r="U3" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="V3" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="X3" t="n">
-        <v>8.380000000000001</v>
+        <v>9.01</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -737,236 +737,72 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="E4" t="n">
-        <v>34.9</v>
+        <v>33.84</v>
       </c>
       <c r="F4" t="n">
-        <v>32.29</v>
+        <v>31.34</v>
       </c>
       <c r="G4" t="n">
-        <v>23.62</v>
+        <v>30.83</v>
       </c>
       <c r="H4" t="n">
-        <v>0.64</v>
+        <v>0.97</v>
       </c>
       <c r="I4" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J4" t="n">
-        <v>40.34</v>
+        <v>53.61</v>
       </c>
       <c r="K4" t="n">
-        <v>19.54</v>
+        <v>24.83</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.29</v>
+        <v>5.78</v>
       </c>
       <c r="O4" t="n">
-        <v>5208.6</v>
+        <v>6845.59</v>
       </c>
       <c r="P4" t="n">
-        <v>126.77</v>
+        <v>148.44</v>
       </c>
       <c r="Q4" t="n">
         <v>1194.85</v>
       </c>
       <c r="R4" t="n">
-        <v>226.66</v>
+        <v>195.81</v>
       </c>
       <c r="S4" t="n">
         <v>100.53</v>
       </c>
       <c r="T4" t="n">
-        <v>62632.11</v>
+        <v>47308.9</v>
       </c>
       <c r="U4" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="V4" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="X4" t="n">
-        <v>12.16</v>
+        <v>11.85</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40.61</v>
-      </c>
-      <c r="K5" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5242.92</v>
-      </c>
-      <c r="P5" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>227.02</v>
-      </c>
-      <c r="S5" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>62809.41</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34.82</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="G6" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>40.89</v>
-      </c>
-      <c r="K6" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5277.26</v>
-      </c>
-      <c r="P6" t="n">
-        <v>127.86</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>224.41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>61513.59</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
         <v>10</v>
       </c>
     </row>
